--- a/Phenoloxidase Activity data/Data for 150 samples/18. Phenoloxidase 19-08-24 (SEG 34 - 42).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/18. Phenoloxidase 19-08-24 (SEG 34 - 42).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\Data for 150 samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
   <si>
     <t>Programm: Tecan i-control</t>
   </si>
@@ -817,6 +817,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1021,11 +1022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343092552"/>
-        <c:axId val="308144464"/>
+        <c:axId val="34307504"/>
+        <c:axId val="34308680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343092552"/>
+        <c:axId val="34307504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,12 +1083,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308144464"/>
+        <c:crossAx val="34308680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308144464"/>
+        <c:axId val="34308680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343092552"/>
+        <c:crossAx val="34307504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1376,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342592536"/>
-        <c:axId val="342581952"/>
+        <c:axId val="284549160"/>
+        <c:axId val="284549552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342592536"/>
+        <c:axId val="284549160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342581952"/>
+        <c:crossAx val="284549552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342581952"/>
+        <c:axId val="284549552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342592536"/>
+        <c:crossAx val="284549160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1761,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342593320"/>
-        <c:axId val="342583520"/>
+        <c:axId val="284546024"/>
+        <c:axId val="284551120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342593320"/>
+        <c:axId val="284546024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342583520"/>
+        <c:crossAx val="284551120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342583520"/>
+        <c:axId val="284551120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342593320"/>
+        <c:crossAx val="284546024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1948,7 +1949,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2111,11 +2111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342588616"/>
-        <c:axId val="342590968"/>
+        <c:axId val="284548376"/>
+        <c:axId val="284546808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342588616"/>
+        <c:axId val="284548376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342590968"/>
+        <c:crossAx val="284546808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342590968"/>
+        <c:axId val="284546808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342588616"/>
+        <c:crossAx val="284548376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2297,7 +2297,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2386,7 +2385,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2511,11 +2509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342591360"/>
-        <c:axId val="342591752"/>
+        <c:axId val="284552296"/>
+        <c:axId val="284545632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342591360"/>
+        <c:axId val="284552296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,12 +2570,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342591752"/>
+        <c:crossAx val="284545632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342591752"/>
+        <c:axId val="284545632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342591360"/>
+        <c:crossAx val="284552296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2698,7 +2696,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2903,11 +2900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342584304"/>
-        <c:axId val="342592144"/>
+        <c:axId val="284547200"/>
+        <c:axId val="284547592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342584304"/>
+        <c:axId val="284547200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,12 +2961,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342592144"/>
+        <c:crossAx val="284547592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342592144"/>
+        <c:axId val="284547592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342584304"/>
+        <c:crossAx val="284547200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3076,6 +3073,391 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$G$36:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Slope for standard and NC'!$H$36:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0299997925758362E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4000000953674316E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6399996876716614E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.680000364780426E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6300002634525299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5699999928474426E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5499996542930603E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5699999928474426E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5599998235702515E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5800001621246338E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6300002634525299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="285217048"/>
+        <c:axId val="285218616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="285217048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285218616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="285218616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285217048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3198,7 +3580,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$G$36:$G$46</c:f>
+              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3240,42 +3622,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Slope for standard and NC'!$H$36:$H$46</c:f>
+              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.0299997925758362E-2</c:v>
+                  <c:v>-2.3233344157536751E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4000000953674316E-2</c:v>
+                  <c:v>-1.1399994293848636E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6399996876716614E-2</c:v>
+                  <c:v>-2.9166340827941895E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.680000364780426E-2</c:v>
+                  <c:v>8.2499881585438306E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6300002634525299E-2</c:v>
+                  <c:v>1.6716649134953743E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5699999928474426E-2</c:v>
+                  <c:v>2.3116658131281498E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5499996542930603E-2</c:v>
+                  <c:v>2.9783328374226925E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5699999928474426E-2</c:v>
+                  <c:v>3.955000638961792E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5599998235702515E-2</c:v>
+                  <c:v>5.0916661818822151E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5800001621246338E-2</c:v>
+                  <c:v>5.8666656414667728E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6300002634525299E-2</c:v>
+                  <c:v>6.6849996646245358E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,11 +3672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342587048"/>
-        <c:axId val="342592928"/>
+        <c:axId val="283664192"/>
+        <c:axId val="283661840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342587048"/>
+        <c:axId val="283664192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,12 +3733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342592928"/>
+        <c:crossAx val="283661840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342592928"/>
+        <c:axId val="283661840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,7 +3795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342587048"/>
+        <c:crossAx val="283664192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3462,7 +3844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3477,6 +3859,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3551,6 +3934,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3583,7 +3967,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$N$18:$N$28</c:f>
+              <c:f>'Slope(Sample - Blank)'!$N$33:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3625,42 +4009,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$O$18:$O$28</c:f>
+              <c:f>'Slope(Sample - Blank)'!$O$33:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.3233344157536751E-2</c:v>
+                  <c:v>6.0966680447260502E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1399994293848636E-2</c:v>
+                  <c:v>5.9449980656305912E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9166340827941895E-3</c:v>
+                  <c:v>7.1400006612141964E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2499881585438306E-3</c:v>
+                  <c:v>8.2199980815251594E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6716649134953743E-2</c:v>
+                  <c:v>9.6199999252955193E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3116658131281498E-2</c:v>
+                  <c:v>0.10736666123072308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9783328374226925E-2</c:v>
+                  <c:v>0.11796666185061139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.955000638961792E-2</c:v>
+                  <c:v>0.1329166789849599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0916661818822151E-2</c:v>
+                  <c:v>0.13898332913716638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8666656414667728E-2</c:v>
+                  <c:v>0.14891667167345685</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6849996646245358E-2</c:v>
+                  <c:v>0.15875000754992169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,11 +4059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593539440"/>
-        <c:axId val="593543360"/>
+        <c:axId val="283663800"/>
+        <c:axId val="283664976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593539440"/>
+        <c:axId val="283663800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,12 +4120,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593543360"/>
+        <c:crossAx val="283664976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593543360"/>
+        <c:axId val="283664976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,392 +4182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593539440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$N$33:$N$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Slope(Sample - Blank)'!$O$33:$O$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.0966680447260502E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9449980656305912E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1400006612141964E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2199980815251594E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6199999252955193E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10736666123072308</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11796666185061139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1329166789849599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13898332913716638</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14891667167345685</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15875000754992169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="593541792"/>
-        <c:axId val="593546104"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="593541792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="593546104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="593546104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="593541792"/>
+        <c:crossAx val="283663800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4247,6 +4246,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4451,11 +4451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593542184"/>
-        <c:axId val="593544536"/>
+        <c:axId val="283659096"/>
+        <c:axId val="283661056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593542184"/>
+        <c:axId val="283659096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,12 +4512,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593544536"/>
+        <c:crossAx val="283661056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593544536"/>
+        <c:axId val="283661056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4574,7 +4574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593542184"/>
+        <c:crossAx val="283659096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4638,6 +4638,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4842,11 +4843,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593541008"/>
-        <c:axId val="593540616"/>
+        <c:axId val="283662232"/>
+        <c:axId val="283664584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593541008"/>
+        <c:axId val="283662232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4903,12 +4904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593540616"/>
+        <c:crossAx val="283664584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593540616"/>
+        <c:axId val="283664584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,7 +4966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593541008"/>
+        <c:crossAx val="283662232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5029,6 +5030,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5103,6 +5105,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5241,11 +5244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593542576"/>
-        <c:axId val="593540224"/>
+        <c:axId val="283659880"/>
+        <c:axId val="283665368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593542576"/>
+        <c:axId val="283659880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,12 +5305,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593540224"/>
+        <c:crossAx val="283665368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593540224"/>
+        <c:axId val="283665368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5364,7 +5367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593542576"/>
+        <c:crossAx val="283659880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5428,6 +5431,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5601,37 +5605,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.7679990927378355E-2</c:v>
+                  <c:v>5.4366658131281553E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9073329766591371E-2</c:v>
+                  <c:v>7.5649996598561586E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5466663440068544E-2</c:v>
+                  <c:v>9.3766664465268434E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11187333861986798</c:v>
+                  <c:v>0.11141667266686756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13428000013033553</c:v>
+                  <c:v>0.13466667135556537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15274667342503861</c:v>
+                  <c:v>0.15363333622614544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17167998949686686</c:v>
+                  <c:v>0.17263332009315496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18965334097544356</c:v>
+                  <c:v>0.1894166767597199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20685332020123798</c:v>
+                  <c:v>0.20594999194145197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22306667367617289</c:v>
+                  <c:v>0.22158333659172064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23742667237917586</c:v>
+                  <c:v>0.23541667064030963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5646,11 +5650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593544928"/>
-        <c:axId val="593545320"/>
+        <c:axId val="283661448"/>
+        <c:axId val="283662624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593544928"/>
+        <c:axId val="283661448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,12 +5711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593545320"/>
+        <c:crossAx val="283662624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593545320"/>
+        <c:axId val="283662624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5769,7 +5773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593544928"/>
+        <c:crossAx val="283661448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5833,6 +5837,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6051,11 +6056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593546496"/>
-        <c:axId val="593546888"/>
+        <c:axId val="283663408"/>
+        <c:axId val="284549944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593546496"/>
+        <c:axId val="283663408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,12 +6117,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593546888"/>
+        <c:crossAx val="284549944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593546888"/>
+        <c:axId val="284549944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6174,7 +6179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593546496"/>
+        <c:crossAx val="283663408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6238,6 +6243,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6442,11 +6448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342583128"/>
-        <c:axId val="342587440"/>
+        <c:axId val="284551512"/>
+        <c:axId val="284553080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342583128"/>
+        <c:axId val="284551512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6503,12 +6509,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342587440"/>
+        <c:crossAx val="284553080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342587440"/>
+        <c:axId val="284553080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6565,7 +6571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342583128"/>
+        <c:crossAx val="284551512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15679,8 +15685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19660,8 +19666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="H93" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19678,40 +19684,40 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>0.53329998254776001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>0.5559999942779541</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>0.58660000562667847</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>0.62199997901916504</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>0.65119999647140503</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>0.66939997673034668</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>0.69010001420974731</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>0.71170002222061157</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>0.71899998188018799</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="10">
         <v>0.72780001163482666</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="10">
         <v>0.74040001630783081</v>
       </c>
       <c r="N3">
@@ -19722,40 +19728,40 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>0.62440001964569092</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>0.66280001401901245</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>0.66649997234344482</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>0.67699998617172241</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>0.68879997730255127</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>0.69950002431869507</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>0.70810002088546753</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <v>0.71359997987747192</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="10">
         <v>0.71420001983642578</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="10">
         <v>0.71749997138977051</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="10">
         <v>0.73199999332427979</v>
       </c>
       <c r="N4">
@@ -19766,40 +19772,40 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>0.67979997396469116</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>0.70099997520446777</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>0.70840001106262207</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>0.71369999647140503</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>0.72619998455047607</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>0.73860001564025879</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>0.75040000677108765</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="10">
         <v>0.7631000280380249</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>0.76759999990463257</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="10">
         <v>0.77640002965927124</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="10">
         <v>0.79420000314712524</v>
       </c>
       <c r="N5">
@@ -19810,40 +19816,40 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>0.7247999906539917</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>0.75410002470016479</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>0.77880001068115234</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>0.79549998044967651</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>0.81859999895095825</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>0.84060001373291016</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>0.8629000186920166</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <v>0.88609999418258667</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>0.90310001373291016</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>0.92140001058578491</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="10">
         <v>0.94889998435974121</v>
       </c>
       <c r="N6">
@@ -19854,40 +19860,40 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>0.5055999755859375</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>0.52090001106262207</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>0.53210002183914185</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>0.53920000791549683</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>0.55190002918243408</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>0.56410002708435059</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>0.5745999813079834</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>0.5853000283241272</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>0.59600001573562622</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="10">
         <v>0.60199999809265137</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="10">
         <v>0.61769998073577881</v>
       </c>
       <c r="N7">
@@ -19898,40 +19904,40 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>0.5031999945640564</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>0.52160000801086426</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>0.52640002965927124</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>0.53189998865127563</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>0.54790002107620239</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>0.56160002946853638</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>0.57529997825622559</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="10">
         <v>0.58799999952316284</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <v>0.59710001945495605</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="10">
         <v>0.60229998826980591</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="10">
         <v>0.61460000276565552</v>
       </c>
       <c r="N8">
@@ -19942,40 +19948,40 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>0.52410000562667847</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>0.52700001001358032</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>0.52670001983642578</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>0.52579998970031738</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <v>0.52530002593994141</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>0.52569997310638428</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <v>0.52560001611709595</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="10">
         <v>0.52679997682571411</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="10">
         <v>0.52679997682571411</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="10">
         <v>0.52609997987747192</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="10">
         <v>0.52560001611709595</v>
       </c>
       <c r="N9">
@@ -19986,40 +19992,40 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>0.51929998397827148</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>0.51639997959136963</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>0.51590001583099365</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>0.51349997520446777</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <v>0.51499998569488525</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>0.51719999313354492</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>0.51829999685287476</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="10">
         <v>0.51899999380111694</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="10">
         <v>0.51789999008178711</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="10">
         <v>0.51810002326965332</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="10">
         <v>0.5187000036239624</v>
       </c>
       <c r="N10">
@@ -20030,40 +20036,40 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>0.49610000848770142</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>0.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>0.49729999899864197</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>0.49149999022483826</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="10">
         <v>0.4885999858379364</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>0.48579999804496765</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>0.48559999465942383</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>0.48769998550415039</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="10">
         <v>0.4885999858379364</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="10">
         <v>0.48769998550415039</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="10">
         <v>0.48910000920295715</v>
       </c>
       <c r="N11">
@@ -20151,40 +20157,40 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>0.72519999742507935</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>0.73350000381469727</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>0.7378000020980835</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>0.74129998683929443</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="10">
         <v>0.74430000782012939</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>0.75129997730255127</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="10">
         <v>0.75999999046325684</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="10">
         <v>0.76429998874664307</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="10">
         <v>0.77130001783370972</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="10">
         <v>0.77300000190734863</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="10">
         <v>0.78130000829696655</v>
       </c>
       <c r="N18">
@@ -20195,40 +20201,40 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>0.63440001010894775</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>0.63459998369216919</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>0.64740002155303955</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>0.65719997882843018</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>0.66149997711181641</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>0.66729998588562012</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="10">
         <v>0.67379999160766602</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="10">
         <v>0.68320000171661377</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="10">
         <v>0.69150000810623169</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="10">
         <v>0.70139998197555542</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="10">
         <v>0.70920002460479736</v>
       </c>
       <c r="N19">
@@ -20239,40 +20245,40 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>0.65160000324249268</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>0.65869998931884766</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>0.66360002756118774</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>0.66960000991821289</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="10">
         <v>0.67129999399185181</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>0.67680001258850098</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="10">
         <v>0.68250000476837158</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="10">
         <v>0.69090002775192261</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="10">
         <v>0.69739997386932373</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="10">
         <v>0.70349997282028198</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="10">
         <v>0.70800000429153442</v>
       </c>
       <c r="N20">
@@ -20283,40 +20289,40 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>0.68709999322891235</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>0.69620001316070557</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>0.69630002975463867</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <v>0.70509999990463257</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <v>0.70929998159408569</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="10">
         <v>0.71319997310638428</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="10">
         <v>0.72030001878738403</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="10">
         <v>0.72960001230239868</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="10">
         <v>0.73729997873306274</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="10">
         <v>0.74699997901916504</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="10">
         <v>0.75489997863769531</v>
       </c>
       <c r="N21">
@@ -20327,40 +20333,40 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>0.68309998512268066</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>0.67489999532699585</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>0.68239998817443848</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>0.68849998712539673</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="10">
         <v>0.6906999945640564</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>0.69709998369216919</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="10">
         <v>0.70179998874664307</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="10">
         <v>0.70759999752044678</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="10">
         <v>0.71210002899169922</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="10">
         <v>0.7160000205039978</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="10">
         <v>0.72070002555847168</v>
       </c>
       <c r="N22">
@@ -20371,40 +20377,40 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>0.63459998369216919</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>0.63969999551773071</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>0.6478000283241272</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="10">
         <v>0.6589999794960022</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="10">
         <v>0.66600000858306885</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="10">
         <v>0.66680002212524414</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="10">
         <v>0.66350001096725464</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="10">
         <v>0.67250001430511475</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="10">
         <v>0.68970000743865967</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="10">
         <v>0.70550000667572021</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="10">
         <v>0.71960002183914185</v>
       </c>
       <c r="N23">
@@ -20415,40 +20421,40 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>0.64950001239776611</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>0.64160001277923584</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>0.63779997825622559</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>0.63870000839233398</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="10">
         <v>0.63950002193450928</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>0.64109998941421509</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="10">
         <v>0.63870000839233398</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <v>0.63789999485015869</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="10">
         <v>0.63550001382827759</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="10">
         <v>0.63650000095367432</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="10">
         <v>0.63630002737045288</v>
       </c>
       <c r="N24">
@@ -20459,40 +20465,40 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>0.69520002603530884</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>0.68919998407363892</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>0.68489998579025269</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="10">
         <v>0.67809998989105225</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="10">
         <v>0.67339998483657837</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>0.67019999027252197</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="10">
         <v>0.66960000991821289</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="10">
         <v>0.66600000858306885</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="10">
         <v>0.66430002450942993</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="10">
         <v>0.66439998149871826</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="10">
         <v>0.66310000419616699</v>
       </c>
       <c r="N25">
@@ -20503,40 +20509,40 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>0.73299998044967651</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>0.72219997644424438</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>0.72369998693466187</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="10">
         <v>0.71880000829696655</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="10">
         <v>0.70850002765655518</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>0.70560002326965332</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="10">
         <v>0.70329999923706055</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="10">
         <v>0.70149999856948853</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="10">
         <v>0.69709998369216919</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="10">
         <v>0.69630002975463867</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="10">
         <v>0.69690001010894775</v>
       </c>
       <c r="N26">
@@ -20626,40 +20632,40 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="10">
         <v>0.52780002355575562</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <v>0.53560000658035278</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="10">
         <v>0.54909998178482056</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="10">
         <v>0.56279999017715454</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="10">
         <v>0.57359999418258667</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="10">
         <v>0.58459997177124023</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="10">
         <v>0.59450000524520874</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="10">
         <v>0.60360002517700195</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="10">
         <v>0.61360001564025879</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="10">
         <v>0.61760002374649048</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="10">
         <v>0.62250000238418579</v>
       </c>
       <c r="N34">
@@ -20670,40 +20676,40 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <v>0.61619997024536133</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>0.60850000381469727</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="10">
         <v>0.62010002136230469</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="10">
         <v>0.62749999761581421</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="10">
         <v>0.6348000168800354</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="10">
         <v>0.64219999313354492</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="10">
         <v>0.64950001239776611</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="10">
         <v>0.66109997034072876</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="10">
         <v>0.67170000076293945</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="10">
         <v>0.68080002069473267</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="10">
         <v>0.69330000877380371</v>
       </c>
       <c r="N35">
@@ -20714,40 +20720,40 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="10">
         <v>0.50779998302459717</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>0.50840002298355103</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <v>0.5228000283241272</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="10">
         <v>0.53030002117156982</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="10">
         <v>0.54210001230239868</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="10">
         <v>0.54989999532699585</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="10">
         <v>0.55879998207092285</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="10">
         <v>0.59609997272491455</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="10">
         <v>0.58279997110366821</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="10">
         <v>0.5932999849319458</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="10">
         <v>0.60710000991821289</v>
       </c>
       <c r="N36">
@@ -20758,40 +20764,40 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <v>0.54460000991821289</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>0.5493999719619751</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <v>0.56080001592636108</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="10">
         <v>0.56879997253417969</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="10">
         <v>0.57889997959136963</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="10">
         <v>0.58799999952316284</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="10">
         <v>0.5965999960899353</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="10">
         <v>0.60540002584457397</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="10">
         <v>0.61470001935958862</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="10">
         <v>0.62449997663497925</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="10">
         <v>0.63330000638961792</v>
       </c>
       <c r="N37">
@@ -20802,40 +20808,40 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <v>0.59450000524520874</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="10">
         <v>0.60399997234344482</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="10">
         <v>0.60820001363754272</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="10">
         <v>0.61369997262954712</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="10">
         <v>0.61989998817443848</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="10">
         <v>0.62559998035430908</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="10">
         <v>0.6315000057220459</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="10">
         <v>0.64149999618530273</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="10">
         <v>0.64899998903274536</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="10">
         <v>0.65640002489089966</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="10">
         <v>0.66089999675750732</v>
       </c>
       <c r="N38">
@@ -20846,40 +20852,40 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <v>0.62589997053146362</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="10">
         <v>0.61820000410079956</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="10">
         <v>0.62400001287460327</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="10">
         <v>0.62809997797012329</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="10">
         <v>0.63510000705718994</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="10">
         <v>0.64630001783370972</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="10">
         <v>0.65509998798370361</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="10">
         <v>0.66280001401901245</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="10">
         <v>0.67089998722076416</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="10">
         <v>0.68449997901916504</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="10">
         <v>0.69480001926422119</v>
       </c>
       <c r="N39">
@@ -20890,40 +20896,40 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="10">
         <v>0.51529997587203979</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="10">
         <v>0.5195000171661377</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="10">
         <v>0.51550000905990601</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="10">
         <v>0.51520001888275146</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="10">
         <v>0.51260000467300415</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="10">
         <v>0.51109999418258667</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="10">
         <v>0.50880002975463867</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="10">
         <v>0.50629997253417969</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="10">
         <v>0.50520002841949463</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="10">
         <v>0.50379997491836548</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="10">
         <v>0.50360000133514404</v>
       </c>
       <c r="N40">
@@ -20934,40 +20940,40 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="10">
         <v>0.49779999256134033</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="10">
         <v>0.49930000305175781</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="10">
         <v>0.49649998545646667</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="10">
         <v>0.49340000748634338</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="10">
         <v>0.48600000143051147</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="10">
         <v>0.4830000102519989</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="10">
         <v>0.47900000214576721</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="10">
         <v>0.47920000553131104</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="10">
         <v>0.47900000214576721</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="10">
         <v>0.47749999165534973</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="10">
         <v>0.47630000114440918</v>
       </c>
       <c r="N41">
@@ -20978,40 +20984,40 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="10">
         <v>0.51239997148513794</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <v>0.51490002870559692</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="10">
         <v>0.5163000226020813</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="10">
         <v>0.51039999723434448</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="10">
         <v>0.50499999523162842</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="10">
         <v>0.50209999084472656</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="10">
         <v>0.50129997730255127</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="10">
         <v>0.50099998712539673</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="10">
         <v>0.50019997358322144</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="10">
         <v>0.50050002336502075</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="10">
         <v>0.49979999661445618</v>
       </c>
       <c r="N42">
@@ -21085,40 +21091,40 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <v>0.29190000891685486</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="10">
         <v>0.29890000820159912</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="10">
         <v>0.30140000581741333</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="10">
         <v>0.30840000510215759</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="10">
         <v>0.31159999966621399</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="10">
         <v>0.31700000166893005</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="10">
         <v>0.32310000061988831</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="10">
         <v>0.32800000905990601</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="10">
         <v>0.33469998836517334</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="10">
         <v>0.34049999713897705</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="10">
         <v>0.34700000286102295</v>
       </c>
       <c r="N50">
@@ -21129,40 +21135,40 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>0.30840000510215759</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <v>0.31600001454353333</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="10">
         <v>0.32170000672340393</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="10">
         <v>0.32699999213218689</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="10">
         <v>0.33059999346733093</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>0.33520001173019409</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="10">
         <v>0.33849999308586121</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="10">
         <v>0.34290000796318054</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="10">
         <v>0.34860000014305115</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="10">
         <v>0.35429999232292175</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="10">
         <v>0.36000001430511475</v>
       </c>
       <c r="N51">
@@ -21173,40 +21179,40 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="10">
         <v>0.30680000782012939</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="10">
         <v>0.31470000743865967</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="10">
         <v>0.32100000977516174</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="10">
         <v>0.32929998636245728</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="10">
         <v>0.33410000801086426</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="10">
         <v>0.34200000762939453</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="10">
         <v>0.34760001301765442</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="10">
         <v>0.35389998555183411</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="10">
         <v>0.36030000448226929</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="10">
         <v>0.36710000038146973</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="10">
         <v>0.37209999561309814</v>
       </c>
       <c r="N52">
@@ -21217,40 +21223,40 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="10">
         <v>0.28720000386238098</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="10">
         <v>0.29429998993873596</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="10">
         <v>0.29890000820159912</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="10">
         <v>0.3043999969959259</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="10">
         <v>0.30880001187324524</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="10">
         <v>0.3158000111579895</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="10">
         <v>0.32240000367164612</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="10">
         <v>0.32769998908042908</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="10">
         <v>0.33410000801086426</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="10">
         <v>0.34099999070167542</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="10">
         <v>0.3465999960899353</v>
       </c>
       <c r="N53">
@@ -21261,40 +21267,40 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="10">
         <v>0.28749999403953552</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="10">
         <v>0.30140000581741333</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="10">
         <v>0.30649998784065247</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="10">
         <v>0.3109000027179718</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="10">
         <v>0.31540000438690186</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="10">
         <v>0.32120001316070557</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <v>0.32640001177787781</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="10">
         <v>0.33230000734329224</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="10">
         <v>0.33820000290870667</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="10">
         <v>0.34360000491142273</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="10">
         <v>0.34970000386238098</v>
       </c>
       <c r="N54">
@@ -21305,40 +21311,40 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="10">
         <v>0.29929998517036438</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="10">
         <v>0.30669999122619629</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="10">
         <v>0.31470000743865967</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="10">
         <v>0.32359999418258667</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="10">
         <v>0.33129999041557312</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="10">
         <v>0.33680000901222229</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <v>0.33379998803138733</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="10">
         <v>0.3310999870300293</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="10">
         <v>0.34220001101493835</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="10">
         <v>0.35710000991821289</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="10">
         <v>0.3684999942779541</v>
       </c>
       <c r="N55">
@@ -21349,40 +21355,40 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="10">
         <v>0.27289998531341553</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="10">
         <v>0.27110001444816589</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="10">
         <v>0.27110001444816589</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="10">
         <v>0.27129998803138733</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="10">
         <v>0.2703000009059906</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="10">
         <v>0.26850000023841858</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="10">
         <v>0.26809999346733093</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="10">
         <v>0.26769998669624329</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="10">
         <v>0.26669999957084656</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="10">
         <v>0.26570001244544983</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="10">
         <v>0.26589998602867126</v>
       </c>
       <c r="N56">
@@ -21393,40 +21399,40 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="10">
         <v>0.25949999690055847</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="10">
         <v>0.25679999589920044</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="10">
         <v>0.25940001010894775</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="10">
         <v>0.258899986743927</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="10">
         <v>0.258899986743927</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="10">
         <v>0.25900000333786011</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="10">
         <v>0.25769999623298645</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="10">
         <v>0.25690001249313354</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="10">
         <v>0.25519999861717224</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="10">
         <v>0.2549000084400177</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="10">
         <v>0.25380000472068787</v>
       </c>
       <c r="N57">
@@ -21437,40 +21443,40 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="10">
         <v>0.25900000333786011</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="10">
         <v>0.25720000267028809</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="10">
         <v>0.25740000605583191</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="10">
         <v>0.25819998979568481</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="10">
         <v>0.25360000133514404</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="10">
         <v>0.25400000810623169</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="10">
         <v>0.25350001454353333</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="10">
         <v>0.25339999794960022</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="10">
         <v>0.25189998745918274</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="10">
         <v>0.25080001354217529</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="10">
         <v>0.2515999972820282</v>
       </c>
       <c r="N58">
@@ -21552,40 +21558,40 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="10">
         <v>0.34459999203681946</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="10">
         <v>0.35339999198913574</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="10">
         <v>0.36419999599456787</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="10">
         <v>0.37149998545646667</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="10">
         <v>0.38060000538825989</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="10">
         <v>0.38929998874664307</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="10">
         <v>0.39559999108314514</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="10">
         <v>0.40029999613761902</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="10">
         <v>0.40860000252723694</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="10">
         <v>0.41359999775886536</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="10">
         <v>0.41749998927116394</v>
       </c>
       <c r="N65">
@@ -21596,40 +21602,40 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="10">
         <v>0.34290000796318054</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="10">
         <v>0.3529999852180481</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="10">
         <v>0.36370000243186951</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="10">
         <v>0.36599999666213989</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="10">
         <v>0.3732999861240387</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="10">
         <v>0.37810000777244568</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="10">
         <v>0.38319998979568481</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="10">
         <v>0.38899999856948853</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="10">
         <v>0.39449998736381531</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="10">
         <v>0.40040001273155212</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="10">
         <v>0.40700000524520874</v>
       </c>
       <c r="N66">
@@ -21640,40 +21646,40 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="10">
         <v>0.3831000030040741</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="10">
         <v>0.38479998707771301</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="10">
         <v>0.39460000395774841</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="10">
         <v>0.39779999852180481</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="10">
         <v>0.40369999408721924</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="10">
         <v>0.40700000524520874</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="10">
         <v>0.41110000014305115</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="10">
         <v>0.41470000147819519</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="10">
         <v>0.41760000586509705</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="10">
         <v>0.42109999060630798</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="10">
         <v>0.42399999499320984</v>
       </c>
       <c r="N67">
@@ -21684,40 +21690,40 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="10">
         <v>0.32019999623298645</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="10">
         <v>0.32730001211166382</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="10">
         <v>0.33320000767707825</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="10">
         <v>0.33700001239776611</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="10">
         <v>0.34279999136924744</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="10">
         <v>0.3474000096321106</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="10">
         <v>0.35220000147819519</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="10">
         <v>0.3564000129699707</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="10">
         <v>0.3612000048160553</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="10">
         <v>0.3668999969959259</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="10">
         <v>0.37310001254081726</v>
       </c>
       <c r="N68">
@@ -21728,40 +21734,40 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="10">
         <v>0.33480000495910645</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="10">
         <v>0.34240001440048218</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="10">
         <v>0.34880000352859497</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="10">
         <v>0.35350000858306885</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="10">
         <v>0.35809999704360962</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="10">
         <v>0.36230000853538513</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="10">
         <v>0.36820000410079956</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="10">
         <v>0.3732999861240387</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="10">
         <v>0.37869998812675476</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="10">
         <v>0.38240000605583191</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="10">
         <v>0.38600000739097595</v>
       </c>
       <c r="N69">
@@ -21772,40 +21778,40 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="10">
         <v>0.32899999618530273</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="10">
         <v>0.33309999108314514</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="10">
         <v>0.33869999647140503</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="10">
         <v>0.34259998798370361</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="10">
         <v>0.34889999032020569</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="10">
         <v>0.35109999775886536</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="10">
         <v>0.35429999232292175</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="10">
         <v>0.35690000653266907</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="10">
         <v>0.36019998788833618</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="10">
         <v>0.36309999227523804</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="10">
         <v>0.36739999055862427</v>
       </c>
       <c r="N70">
@@ -21816,40 +21822,40 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="10">
         <v>0.34229999780654907</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="10">
         <v>0.33529999852180481</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="10">
         <v>0.33520001173019409</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="10">
         <v>0.33689999580383301</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="10">
         <v>0.33579999208450317</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="10">
         <v>0.33489999175071716</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="10">
         <v>0.33340001106262207</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="10">
         <v>0.33289998769760132</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="10">
         <v>0.32969999313354492</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="10">
         <v>0.32929998636245728</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="10">
         <v>0.33000001311302185</v>
       </c>
       <c r="N71">
@@ -21860,40 +21866,40 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="10">
         <v>0.3140999972820282</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="10">
         <v>0.31430000066757202</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="10">
         <v>0.31299999356269836</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="10">
         <v>0.31679999828338623</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="10">
         <v>0.31659999489784241</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="10">
         <v>0.31639999151229858</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="10">
         <v>0.31499999761581421</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="10">
         <v>0.31389999389648438</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="10">
         <v>0.3125</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="10">
         <v>0.31200000643730164</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="10">
         <v>0.31040000915527344</v>
       </c>
       <c r="N72">
@@ -21904,40 +21910,40 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="10">
         <v>0.3684999942779541</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="10">
         <v>0.36919999122619629</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="10">
         <v>0.36800000071525574</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="10">
         <v>0.36739999055862427</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="10">
         <v>0.36419999599456787</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="10">
         <v>0.36269998550415039</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="10">
         <v>0.36349999904632568</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="10">
         <v>0.36109998822212219</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="10">
         <v>0.3619999885559082</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="10">
         <v>0.35949999094009399</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="10">
         <v>0.3628000020980835</v>
       </c>
       <c r="N73">
@@ -22027,40 +22033,40 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="10">
         <v>0.68860000371932983</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="10">
         <v>0.70039999485015869</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="10">
         <v>0.70410001277923584</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="10">
         <v>0.71219998598098755</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="10">
         <v>0.71579998731613159</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="10">
         <v>0.71960002183914185</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="10">
         <v>0.72329998016357422</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="10">
         <v>0.72579997777938843</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="10">
         <v>0.73150002956390381</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="10">
         <v>0.73439997434616089</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="10">
         <v>0.74190002679824829</v>
       </c>
       <c r="N81">
@@ -22071,40 +22077,40 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="10">
         <v>0.73089998960494995</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="10">
         <v>0.73839998245239258</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="10">
         <v>0.74269998073577881</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="10">
         <v>0.74709999561309814</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="10">
         <v>0.74930000305175781</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="10">
         <v>0.75349998474121094</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="10">
         <v>0.75730001926422119</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="10">
         <v>0.75999999046325684</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="10">
         <v>0.77060002088546753</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="10">
         <v>0.77439999580383301</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="10">
         <v>0.78270000219345093</v>
       </c>
       <c r="N82">
@@ -22115,40 +22121,40 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="10">
         <v>0.76080000400543213</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="10">
         <v>0.76520001888275146</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="10">
         <v>0.76880002021789551</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="10">
         <v>0.77270001173019409</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="10">
         <v>0.77389997243881226</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="10">
         <v>0.77480000257492065</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="10">
         <v>0.77549999952316284</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="10">
         <v>0.77859997749328613</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="10">
         <v>0.78049999475479126</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="10">
         <v>0.78299999237060547</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="10">
         <v>0.78619998693466187</v>
       </c>
       <c r="N83">
@@ -22159,40 +22165,40 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="10">
         <v>0.7434999942779541</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="10">
         <v>0.74610000848770142</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="10">
         <v>0.75859999656677246</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="10">
         <v>0.76230001449584961</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="10">
         <v>0.77340000867843628</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="10">
         <v>0.77780002355575562</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="10">
         <v>0.78359997272491455</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="10">
         <v>0.78869998455047607</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="10">
         <v>0.79540002346038818</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="10">
         <v>0.80140000581741333</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="10">
         <v>0.80739998817443848</v>
       </c>
       <c r="N84">
@@ -22203,40 +22209,40 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="10">
         <v>0.67189997434616089</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="10">
         <v>0.67510002851486206</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="10">
         <v>0.68150001764297485</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="10">
         <v>0.6841999888420105</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="10">
         <v>0.68519997596740723</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="10">
         <v>0.68690001964569092</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="10">
         <v>0.68940001726150513</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="10">
         <v>0.69120001792907715</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="10">
         <v>0.69419997930526733</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="10">
         <v>0.69749999046325684</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="10">
         <v>0.7006000280380249</v>
       </c>
       <c r="N85">
@@ -22247,40 +22253,40 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="10">
         <v>0.79559999704360962</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="10">
         <v>0.79220002889633179</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="10">
         <v>0.80239999294281006</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="10">
         <v>0.81269997358322144</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="10">
         <v>0.82400000095367432</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="10">
         <v>0.82349997758865356</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="10">
         <v>0.82410001754760742</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="10">
         <v>0.8320000171661377</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="10">
         <v>0.83020001649856567</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="10">
         <v>0.8310999870300293</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="10">
         <v>0.83009999990463257</v>
       </c>
       <c r="N86">
@@ -22291,40 +22297,40 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="10">
         <v>0.71439999341964722</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="10">
         <v>0.7093999981880188</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="10">
         <v>0.70209997892379761</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="10">
         <v>0.69760000705718994</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="10">
         <v>0.69950002431869507</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="10">
         <v>0.69609999656677246</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="10">
         <v>0.69499999284744263</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="10">
         <v>0.6940000057220459</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="10">
         <v>0.69359999895095825</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="10">
         <v>0.69239997863769531</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="10">
         <v>0.69209998846054077</v>
       </c>
       <c r="N87">
@@ -22335,40 +22341,40 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="10">
         <v>0.70440000295639038</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="10">
         <v>0.70550000667572021</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="10">
         <v>0.69840002059936523</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="10">
         <v>0.69559997320175171</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="10">
         <v>0.69050002098083496</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="10">
         <v>0.69169998168945313</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="10">
         <v>0.69059997797012329</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="10">
         <v>0.68900001049041748</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="10">
         <v>0.6875</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="10">
         <v>0.68489998579025269</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="10">
         <v>0.6843000054359436</v>
       </c>
       <c r="N88">
@@ -22379,40 +22385,40 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="10">
         <v>0.7257000207901001</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="10">
         <v>0.72329998016357422</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="10">
         <v>0.7159000039100647</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="10">
         <v>0.71619999408721924</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="10">
         <v>0.70959997177124023</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="10">
         <v>0.71170002222061157</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="10">
         <v>0.70959997177124023</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="10">
         <v>0.70779997110366821</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="10">
         <v>0.7060999870300293</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="10">
         <v>0.70450001955032349</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="10">
         <v>0.70260000228881836</v>
       </c>
       <c r="N89">
@@ -22477,364 +22483,402 @@
         <v>8.1816673278808594E-2</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>156</v>
+      <c r="A97" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="10">
+        <v>0.45239999890327454</v>
+      </c>
+      <c r="C97" s="10">
+        <v>0.47179999947547913</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0.49950000643730164</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0.52340000867843628</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0.54970002174377441</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0.57209998369216919</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0.59179997444152832</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0.60250002145767212</v>
+      </c>
+      <c r="J97" s="10">
+        <v>0.61580002307891846</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0.62919998168945313</v>
+      </c>
+      <c r="L97" s="10">
+        <v>0.64079999923706055</v>
       </c>
       <c r="N97">
         <v>91272</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="10">
         <v>0.43930000066757202</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="10">
         <v>0.45789998769760132</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="10">
         <v>0.47630000114440918</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="10">
         <v>0.49500000476837158</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="10">
         <v>0.52179998159408569</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="10">
         <v>0.54589998722076416</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="10">
         <v>0.57289999723434448</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="10">
         <v>0.59719997644424438</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="10">
         <v>0.62059998512268066</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="10">
         <v>0.64340001344680786</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="10">
         <v>0.66460001468658447</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>5.7679990927378355E-2</v>
+        <v>5.4366658131281553E-2</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="10">
         <v>0.41370001435279846</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="10">
         <v>0.4293999969959259</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="10">
         <v>0.44220000505447388</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="10">
         <v>0.45860001444816589</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="10">
         <v>0.47979998588562012</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="10">
         <v>0.49819999933242798</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="10">
         <v>0.51789999008178711</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="10">
         <v>0.53680002689361572</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="10">
         <v>0.55379998683929443</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="10">
         <v>0.57090002298355103</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="10">
         <v>0.5845000147819519</v>
       </c>
       <c r="N99">
         <v>3</v>
       </c>
       <c r="O99">
-        <v>7.9073329766591371E-2</v>
+        <v>7.5649996598561586E-2</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="10">
         <v>0.51289999485015869</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="10">
         <v>0.53240001201629639</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="10">
         <v>0.55059999227523804</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="10">
         <v>0.56669998168945313</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="10">
         <v>0.58520001173019409</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="10">
         <v>0.60290002822875977</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="10">
         <v>0.62089997529983521</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="10">
         <v>0.63760000467300415</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="10">
         <v>0.65450000762939453</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="10">
         <v>0.67089998722076416</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="10">
         <v>0.68599998950958252</v>
       </c>
       <c r="N100">
         <v>6</v>
       </c>
       <c r="O100">
-        <v>9.5466663440068544E-2</v>
+        <v>9.3766664465268434E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="10">
         <v>0.51749998331069946</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="10">
         <v>0.54199999570846558</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="10">
         <v>0.56180000305175781</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="10">
         <v>0.57770001888275146</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="10">
         <v>0.59789997339248657</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="10">
         <v>0.61510002613067627</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="10">
         <v>0.63220000267028809</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="10">
         <v>0.6478000283241272</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="10">
         <v>0.66289997100830078</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="10">
         <v>0.67659997940063477</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="10">
         <v>0.68910002708435059</v>
       </c>
       <c r="N101">
         <v>9</v>
       </c>
       <c r="O101">
-        <v>0.11187333861986798</v>
+        <v>0.11141667266686756</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="10">
         <v>0.4779999852180481</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="10">
         <v>0.5</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="10">
         <v>0.51759999990463257</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="10">
         <v>0.53270000219345093</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="10">
         <v>0.55220001935958862</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="10">
         <v>0.57179999351501465</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="10">
         <v>0.58649998903274536</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="10">
         <v>0.60019999742507935</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="10">
         <v>0.61430001258850098</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="10">
         <v>0.62870001792907715</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="10">
         <v>0.64010000228881836</v>
       </c>
       <c r="N102">
         <v>12</v>
       </c>
       <c r="O102">
-        <v>0.13428000013033553</v>
+        <v>0.13466667135556537</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="10">
         <v>0.41010001301765442</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="10">
         <v>0.40790000557899475</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="10">
         <v>0.40929999947547913</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="10">
         <v>0.41040000319480896</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="10">
         <v>0.40959998965263367</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="10">
         <v>0.41159999370574951</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="10">
         <v>0.41139999032020569</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="10">
         <v>0.41150000691413879</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="10">
         <v>0.41139999032020569</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="10">
         <v>0.4122999906539917</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="10">
         <v>0.41280001401901245</v>
       </c>
       <c r="N103">
         <v>15</v>
       </c>
       <c r="O103">
-        <v>0.15274667342503861</v>
+        <v>0.15363333622614544</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="10">
         <v>0.43230000138282776</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="10">
         <v>0.43169999122619629</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="10">
         <v>0.43389999866485596</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="10">
         <v>0.4325999915599823</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="10">
         <v>0.42980000376701355</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="10">
         <v>0.43090000748634338</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="10">
         <v>0.43140000104904175</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="10">
         <v>0.43140000104904175</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="10">
         <v>0.43130001425743103</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="10">
         <v>0.43079999089241028</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="10">
         <v>0.43090000748634338</v>
       </c>
       <c r="N104">
         <v>18</v>
       </c>
       <c r="O104">
-        <v>0.17167998949686686</v>
+        <v>0.17263332009315496</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="10">
         <v>0.40139999985694885</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="10">
         <v>0.4002000093460083</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="10">
         <v>0.39950001239776611</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="10">
         <v>0.39980000257492065</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="10">
         <v>0.39989998936653137</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="10">
         <v>0.39959999918937683</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="10">
         <v>0.40040001273155212</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="10">
         <v>0.39989998936653137</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="10">
         <v>0.40040001273155212</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="10">
         <v>0.40200001001358032</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="10">
         <v>0.4025999903678894</v>
       </c>
       <c r="N105">
         <v>21</v>
       </c>
       <c r="O105">
-        <v>0.18965334097544356</v>
+        <v>0.1894166767597199</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -22842,54 +22886,54 @@
         <v>127</v>
       </c>
       <c r="B106">
-        <f t="shared" ref="B106:L106" si="6">AVERAGE(B98:B102)-AVERAGE(B103:B105)</f>
-        <v>5.7679990927378355E-2</v>
-      </c>
-      <c r="C106">
+        <f>AVERAGE(B97:B102)-AVERAGE(B103:B105)</f>
+        <v>5.4366658131281553E-2</v>
+      </c>
+      <c r="C106" s="10">
+        <f t="shared" ref="C106:L106" si="6">AVERAGE(C97:C102)-AVERAGE(C103:C105)</f>
+        <v>7.5649996598561586E-2</v>
+      </c>
+      <c r="D106" s="10">
         <f t="shared" si="6"/>
-        <v>7.9073329766591371E-2</v>
-      </c>
-      <c r="D106">
+        <v>9.3766664465268434E-2</v>
+      </c>
+      <c r="E106" s="10">
         <f t="shared" si="6"/>
-        <v>9.5466663440068544E-2</v>
-      </c>
-      <c r="E106">
+        <v>0.11141667266686756</v>
+      </c>
+      <c r="F106" s="10">
         <f t="shared" si="6"/>
-        <v>0.11187333861986798</v>
-      </c>
-      <c r="F106">
+        <v>0.13466667135556537</v>
+      </c>
+      <c r="G106" s="10">
         <f t="shared" si="6"/>
-        <v>0.13428000013033553</v>
-      </c>
-      <c r="G106">
+        <v>0.15363333622614544</v>
+      </c>
+      <c r="H106" s="10">
         <f t="shared" si="6"/>
-        <v>0.15274667342503861</v>
-      </c>
-      <c r="H106">
+        <v>0.17263332009315496</v>
+      </c>
+      <c r="I106" s="10">
         <f t="shared" si="6"/>
-        <v>0.17167998949686686</v>
-      </c>
-      <c r="I106">
+        <v>0.1894166767597199</v>
+      </c>
+      <c r="J106" s="10">
         <f t="shared" si="6"/>
-        <v>0.18965334097544356</v>
-      </c>
-      <c r="J106">
+        <v>0.20594999194145197</v>
+      </c>
+      <c r="K106" s="10">
         <f t="shared" si="6"/>
-        <v>0.20685332020123798</v>
-      </c>
-      <c r="K106">
+        <v>0.22158333659172064</v>
+      </c>
+      <c r="L106" s="10">
         <f t="shared" si="6"/>
-        <v>0.22306667367617289</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="6"/>
-        <v>0.23742667237917586</v>
+        <v>0.23541667064030963</v>
       </c>
       <c r="N106">
         <v>24</v>
       </c>
       <c r="O106">
-        <v>0.20685332020123798</v>
+        <v>0.20594999194145197</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -22897,7 +22941,7 @@
         <v>27</v>
       </c>
       <c r="O107">
-        <v>0.22306667367617289</v>
+        <v>0.22158333659172064</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -22905,7 +22949,7 @@
         <v>30</v>
       </c>
       <c r="O108">
-        <v>0.23742667237917586</v>
+        <v>0.23541667064030963</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -22914,40 +22958,40 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="10">
         <v>0.53329998254776001</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="10">
         <v>0.55180001258850098</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="10">
         <v>0.56370002031326294</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="10">
         <v>0.57120001316070557</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="10">
         <v>0.57950001955032349</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="10">
         <v>0.58819997310638428</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="10">
         <v>0.59930002689361572</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="10">
         <v>0.60799998044967651</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="10">
         <v>0.61629998683929443</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="10">
         <v>0.62190002202987671</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="10">
         <v>0.62599998712539673</v>
       </c>
       <c r="N113">
@@ -22955,40 +22999,40 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="10">
         <v>0.5723000168800354</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="10">
         <v>0.58859997987747192</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="10">
         <v>0.6021999716758728</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="10">
         <v>0.61360001564025879</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="10">
         <v>0.62769997119903564</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="10">
         <v>0.64069998264312744</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="10">
         <v>0.65230000019073486</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="10">
         <v>0.66310000419616699</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="10">
         <v>0.67659997940063477</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="10">
         <v>0.68900001049041748</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="10">
         <v>0.70039999485015869</v>
       </c>
       <c r="N114">
@@ -22999,40 +23043,40 @@
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="10">
         <v>0.54350000619888306</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="10">
         <v>0.55110001564025879</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="10">
         <v>0.56319999694824219</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="10">
         <v>0.57220000028610229</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="10">
         <v>0.58279997110366821</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="10">
         <v>0.59350001811981201</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="10">
         <v>0.60559999942779541</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="10">
         <v>0.62440001964569092</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="10">
         <v>0.64060002565383911</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="10">
         <v>0.65420001745223999</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="10">
         <v>0.66659998893737793</v>
       </c>
       <c r="N115">
@@ -23043,40 +23087,40 @@
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="10">
         <v>0.53070002794265747</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="10">
         <v>0.53810000419616699</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="10">
         <v>0.54720002412796021</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="10">
         <v>0.55279999971389771</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="10">
         <v>0.56089997291564941</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="10">
         <v>0.569100022315979</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="10">
         <v>0.57740002870559692</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="10">
         <v>0.58710002899169922</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="10">
         <v>0.60089999437332153</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="10">
         <v>0.61309999227523804</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="10">
         <v>0.6226000189781189</v>
       </c>
       <c r="N116">
@@ -23087,40 +23131,40 @@
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="10">
         <v>0.49410000443458557</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="10">
         <v>0.506600022315979</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="10">
         <v>0.51730000972747803</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="10">
         <v>0.5250999927520752</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="10">
         <v>0.5382000207901001</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="10">
         <v>0.55680000782012939</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="10">
         <v>0.57270002365112305</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="10">
         <v>0.58670002222061157</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="10">
         <v>0.60479998588562012</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="10">
         <v>0.61959999799728394</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="10">
         <v>0.63319998979568481</v>
       </c>
       <c r="N117">
@@ -23131,40 +23175,40 @@
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="10">
         <v>0.55879998207092285</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="10">
         <v>0.57090002298355103</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="10">
         <v>0.58370000123977661</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="10">
         <v>0.59249997138977051</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="10">
         <v>0.56760001182556152</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="10">
         <v>0.59369999170303345</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="10">
         <v>0.60170000791549683</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="10">
         <v>0.61220002174377441</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="10">
         <v>0.62449997663497925</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="10">
         <v>0.63370001316070557</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="10">
         <v>0.63639998435974121</v>
       </c>
       <c r="N118">
@@ -23175,40 +23219,40 @@
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="10">
         <v>0.50620001554489136</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="10">
         <v>0.50050002336502075</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="10">
         <v>0.49099999666213989</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="10">
         <v>0.48899999260902405</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="10">
         <v>0.48960000276565552</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="10">
         <v>0.48899999260902405</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="10">
         <v>0.4869999885559082</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="10">
         <v>0.48500001430511475</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="10">
         <v>0.48590001463890076</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="10">
         <v>0.48510000109672546</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="10">
         <v>0.48550000786781311</v>
       </c>
       <c r="N119">
@@ -23219,40 +23263,40 @@
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="10">
         <v>0.48980000615119934</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="10">
         <v>0.49480000138282776</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="10">
         <v>0.48629999160766602</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="10">
         <v>0.4796999990940094</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="10">
         <v>0.48089998960494995</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="10">
         <v>0.47839999198913574</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="10">
         <v>0.47690001130104065</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="10">
         <v>0.47540000081062317</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="10">
         <v>0.47560000419616699</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="10">
         <v>0.47729998826980591</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="10">
         <v>0.47749999165534973</v>
       </c>
       <c r="N120">
@@ -23263,40 +23307,40 @@
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="10">
         <v>0.50739997625350952</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="10">
         <v>0.51010000705718994</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="10">
         <v>0.50199997425079346</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="10">
         <v>0.49970000982284546</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="10">
         <v>0.5031999945640564</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="10">
         <v>0.50120002031326294</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="10">
         <v>0.49970000982284546</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="10">
         <v>0.49799999594688416</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="10">
         <v>0.49750000238418579</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="10">
         <v>0.49790000915527344</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="10">
         <v>0.49720001220703125</v>
       </c>
       <c r="N121">
@@ -23383,40 +23427,40 @@
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="10">
         <v>0.46759998798370361</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="10">
         <v>0.476500004529953</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="10">
         <v>0.48559999465942383</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="10">
         <v>0.49439999461174011</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="10">
         <v>0.50209999084472656</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="10">
         <v>0.50499999523162842</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="10">
         <v>0.51150000095367432</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="10">
         <v>0.51940000057220459</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="10">
         <v>0.52810001373291016</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="10">
         <v>0.53829997777938843</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="10">
         <v>0.54839998483657837</v>
       </c>
       <c r="N129">
@@ -23424,40 +23468,40 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="10">
         <v>0.44670000672340393</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="10">
         <v>0.4593999981880188</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="10">
         <v>0.46779999136924744</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="10">
         <v>0.47740000486373901</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="10">
         <v>0.48890000581741333</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="10">
         <v>0.49729999899864197</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="10">
         <v>0.50669997930526733</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="10">
         <v>0.51740002632141113</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="10">
         <v>0.5275999903678894</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="10">
         <v>0.53869998455047607</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="10">
         <v>0.54720002412796021</v>
       </c>
       <c r="N130">
@@ -23468,40 +23512,40 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="10">
         <v>0.4885999858379364</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="10">
         <v>0.50470000505447388</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="10">
         <v>0.51429998874664307</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="10">
         <v>0.52120000123977661</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="10">
         <v>0.53130000829696655</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="10">
         <v>0.53920000791549683</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="10">
         <v>0.55080002546310425</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="10">
         <v>0.55870002508163452</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="10">
         <v>0.56480002403259277</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="10">
         <v>0.5746999979019165</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="10">
         <v>0.58179998397827148</v>
       </c>
       <c r="N131">
@@ -23512,40 +23556,40 @@
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="10">
         <v>0.49380001425743103</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="10">
         <v>0.50419998168945313</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="10">
         <v>0.51120001077651978</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="10">
         <v>0.51719999313354492</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="10">
         <v>0.52369999885559082</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="10">
         <v>0.52929997444152832</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="10">
         <v>0.53829997777938843</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="10">
         <v>0.54750001430511475</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="10">
         <v>0.55540001392364502</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="10">
         <v>0.56290000677108765</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="10">
         <v>0.57050001621246338</v>
       </c>
       <c r="N132">
@@ -23556,40 +23600,40 @@
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="10">
         <v>0.50010001659393311</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="10">
         <v>0.51450002193450928</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="10">
         <v>0.52310001850128174</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="10">
         <v>0.53240001201629639</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="10">
         <v>0.54589998722076416</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="10">
         <v>0.55199998617172241</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="10">
         <v>0.56370002031326294</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="10">
         <v>0.57669997215270996</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="10">
         <v>0.58689999580383301</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="10">
         <v>0.59850001335144043</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="10">
         <v>0.60769999027252197</v>
       </c>
       <c r="N133">
@@ -23600,40 +23644,40 @@
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="10">
         <v>0.46230000257492065</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="10">
         <v>0.4731999933719635</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="10">
         <v>0.48230001330375671</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="10">
         <v>0.49120000004768372</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="10">
         <v>0.49959999322891235</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="10">
         <v>0.50959998369216919</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="10">
         <v>0.52029997110366821</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="10">
         <v>0.52890002727508545</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="10">
         <v>0.5382000207901001</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="10">
         <v>0.54890000820159912</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="10">
         <v>0.55750000476837158</v>
       </c>
       <c r="N134">
@@ -23644,40 +23688,40 @@
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="10">
         <v>0.46439999341964722</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="10">
         <v>0.45600000023841858</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="10">
         <v>0.44990000128746033</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="10">
         <v>0.4496999979019165</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="10">
         <v>0.44810000061988831</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="10">
         <v>0.44760000705718994</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="10">
         <v>0.44629999995231628</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="10">
         <v>0.44589999318122864</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="10">
         <v>0.44600000977516174</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="10">
         <v>0.44519999623298645</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="10">
         <v>0.44519999623298645</v>
       </c>
       <c r="N135">
@@ -23688,40 +23732,40 @@
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="10">
         <v>0.47569999098777771</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="10">
         <v>0.47350001335144043</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="10">
         <v>0.46689999103546143</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="10">
         <v>0.46610000729560852</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="10">
         <v>0.46700000762939453</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="10">
         <v>0.46619999408721924</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="10">
         <v>0.46279999613761902</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="10">
         <v>0.45899999141693115</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="10">
         <v>0.45820000767707825</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="10">
         <v>0.45750001072883606</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="10">
         <v>0.45759999752044678</v>
       </c>
       <c r="N136">
@@ -23732,40 +23776,40 @@
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="10">
         <v>0.46689999103546143</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="10">
         <v>0.46090000867843628</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="10">
         <v>0.45660001039505005</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="10">
         <v>0.45140001177787781</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="10">
         <v>0.45109999179840088</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="10">
         <v>0.45260000228881836</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="10">
         <v>0.45170000195503235</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="10">
         <v>0.45140001177787781</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="10">
         <v>0.45120000839233398</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="10">
         <v>0.45059999823570251</v>
       </c>
-      <c r="L137">
+      <c r="L137" s="10">
         <v>0.44980001449584961</v>
       </c>
       <c r="N137">
@@ -25045,8 +25089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
